--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100098.7459002755</v>
+        <v>18225764.02863192</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100098.7459002755</v>
+        <v>18225764.02863192</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>290971.0570877768</v>
+        <v>35135559.56251179</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290971.0570877768</v>
+        <v>35135559.56251179</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1488518361.72851</v>
+        <v>16513587.78703796</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18307.36787350816</v>
+        <v>458075.4357451682</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35687.78626886429</v>
+        <v>778235.6865348027</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53287.51867570103</v>
+        <v>1098395.937324436</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>70886.03478906436</v>
+        <v>1364387.026221981</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>88382.83853065492</v>
+        <v>1699970.530098839</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>105768.8276464717</v>
+        <v>2019511.71397538</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>123154.658417923</v>
+        <v>2339052.89785192</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>140540.6475337398</v>
+        <v>2658594.081728459</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>157946.1789837794</v>
+        <v>2974583.037606046</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>175334.4657653669</v>
+        <v>3295193.70948227</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>192720.4548811837</v>
+        <v>3614734.893358813</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>210106.4439970005</v>
+        <v>3934276.077235356</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227492.4331128174</v>
+        <v>4253817.261111899</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>244878.4222286344</v>
+        <v>4573358.444988442</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262500.6925787374</v>
+        <v>4836397.575454705</v>
       </c>
     </row>
   </sheetData>
